--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40987\Documents\GitHub\social-media-usda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40987\Desktop\Twitter_Talend\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
   <si>
     <t>a</t>
   </si>
@@ -519,6 +519,156 @@
   </si>
   <si>
     <t>us</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -849,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A165"/>
+  <dimension ref="A1:A217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,6 +1835,266 @@
         <v>163</v>
       </c>
     </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
